--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3a</t>
+  </si>
+  <si>
+    <t>Plxna2</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Sema3a</t>
-  </si>
-  <si>
-    <t>Plxna2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H2">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I2">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J2">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N2">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O2">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P2">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q2">
-        <v>38.398788659385</v>
+        <v>58.078792439794</v>
       </c>
       <c r="R2">
-        <v>153.59515463754</v>
+        <v>232.315169759176</v>
       </c>
       <c r="S2">
-        <v>0.03867413337864332</v>
+        <v>0.3234777901056934</v>
       </c>
       <c r="T2">
-        <v>0.0310124944063736</v>
+        <v>0.2905705860742082</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H3">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I3">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J3">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>4.394928</v>
       </c>
       <c r="O3">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P3">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q3">
-        <v>1.795688472096</v>
+        <v>1.768056094784</v>
       </c>
       <c r="R3">
-        <v>10.774130832576</v>
+        <v>10.608336568704</v>
       </c>
       <c r="S3">
-        <v>0.001808564746465239</v>
+        <v>0.00984743060759235</v>
       </c>
       <c r="T3">
-        <v>0.002175411541902479</v>
+        <v>0.01326848598494944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H4">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I4">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J4">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N4">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O4">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P4">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q4">
-        <v>1.416451239918</v>
+        <v>0.06070103536933335</v>
       </c>
       <c r="R4">
-        <v>8.498707439507999</v>
+        <v>0.3642062122160001</v>
       </c>
       <c r="S4">
-        <v>0.001426608132429842</v>
+        <v>0.0003380827312956634</v>
       </c>
       <c r="T4">
-        <v>0.001715979371557139</v>
+        <v>0.0004555346628684397</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H5">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I5">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J5">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N5">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O5">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P5">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q5">
-        <v>27.61002058095</v>
+        <v>5.690522628294</v>
       </c>
       <c r="R5">
-        <v>110.4400823238</v>
+        <v>22.762090513176</v>
       </c>
       <c r="S5">
-        <v>0.02780800269525609</v>
+        <v>0.03169414526404217</v>
       </c>
       <c r="T5">
-        <v>0.02229902657664425</v>
+        <v>0.02846991863486127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H6">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I6">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J6">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N6">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O6">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P6">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q6">
-        <v>33.921477848736</v>
+        <v>0.274616799128</v>
       </c>
       <c r="R6">
-        <v>203.528867092416</v>
+        <v>1.647700794768</v>
       </c>
       <c r="S6">
-        <v>0.03416471728730106</v>
+        <v>0.001529515879654533</v>
       </c>
       <c r="T6">
-        <v>0.04109464173615548</v>
+        <v>0.002060878702441108</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.225746</v>
+        <v>1.206884</v>
       </c>
       <c r="H7">
-        <v>2.451492</v>
+        <v>2.413768</v>
       </c>
       <c r="I7">
-        <v>0.1045666790027646</v>
+        <v>0.3680467510043351</v>
       </c>
       <c r="J7">
-        <v>0.09912108042370671</v>
+        <v>0.3363881071054534</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N7">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O7">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P7">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q7">
-        <v>0.6797783024999999</v>
+        <v>0.2082337538866667</v>
       </c>
       <c r="R7">
-        <v>4.078669815</v>
+        <v>1.24940252332</v>
       </c>
       <c r="S7">
-        <v>0.0006846527626690452</v>
+        <v>0.001159786416057081</v>
       </c>
       <c r="T7">
-        <v>0.0008235267910737668</v>
+        <v>0.001562703046124897</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.850885</v>
       </c>
       <c r="I8">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J8">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N8">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O8">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P8">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q8">
-        <v>19.32747946905416</v>
+        <v>29.69000217224083</v>
       </c>
       <c r="R8">
-        <v>115.964876814325</v>
+        <v>178.140013033445</v>
       </c>
       <c r="S8">
-        <v>0.01946607028387345</v>
+        <v>0.1653625340241968</v>
       </c>
       <c r="T8">
-        <v>0.0234145413117158</v>
+        <v>0.2228104520425993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.850885</v>
       </c>
       <c r="I9">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J9">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>4.394928</v>
       </c>
       <c r="O9">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P9">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q9">
         <v>0.9038340345866667</v>
@@ -1013,10 +1013,10 @@
         <v>8.134506311279999</v>
       </c>
       <c r="S9">
-        <v>0.0009103151225896485</v>
+        <v>0.005034027462493928</v>
       </c>
       <c r="T9">
-        <v>0.001642443292384462</v>
+        <v>0.01017431736697692</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>1.850885</v>
       </c>
       <c r="I10">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J10">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N10">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O10">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P10">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q10">
-        <v>0.7129504136516667</v>
+        <v>0.03103049833277778</v>
       </c>
       <c r="R10">
-        <v>6.416553722864999</v>
+        <v>0.279274484995</v>
       </c>
       <c r="S10">
-        <v>0.0007180627398042792</v>
+        <v>0.000172828611010993</v>
       </c>
       <c r="T10">
-        <v>0.001295570403299107</v>
+        <v>0.0003493054322052708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>1.850885</v>
       </c>
       <c r="I11">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J11">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N11">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O11">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P11">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q11">
-        <v>13.89710781379167</v>
+        <v>2.9090072657825</v>
       </c>
       <c r="R11">
-        <v>83.38264688275</v>
+        <v>17.454043594695</v>
       </c>
       <c r="S11">
-        <v>0.01399675927111845</v>
+        <v>0.0162021144415527</v>
       </c>
       <c r="T11">
-        <v>0.01683584274609592</v>
+        <v>0.02183082440088906</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>1.850885</v>
       </c>
       <c r="I12">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J12">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N12">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O12">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P12">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q12">
-        <v>17.07388929627555</v>
+        <v>0.1403846915566667</v>
       </c>
       <c r="R12">
-        <v>153.66500366648</v>
+        <v>1.26346222401</v>
       </c>
       <c r="S12">
-        <v>0.01719632037858475</v>
+        <v>0.0007818917694698024</v>
       </c>
       <c r="T12">
-        <v>0.03102659766779746</v>
+        <v>0.001580288361254151</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.850885</v>
       </c>
       <c r="I13">
-        <v>0.05263213794321497</v>
+        <v>0.1881462815903486</v>
       </c>
       <c r="J13">
-        <v>0.07483676101738548</v>
+        <v>0.257943473283214</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N13">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O13">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P13">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q13">
-        <v>0.3421566576388889</v>
+        <v>0.1064495376972222</v>
       </c>
       <c r="R13">
-        <v>3.07940991875</v>
+        <v>0.958045839275</v>
       </c>
       <c r="S13">
-        <v>0.000344610147244398</v>
+        <v>0.0005928852816243622</v>
       </c>
       <c r="T13">
-        <v>0.000621765596092734</v>
+        <v>0.001198285679289344</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H14">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I14">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J14">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N14">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O14">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P14">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q14">
-        <v>288.4703257386913</v>
+        <v>0.01272049410016667</v>
       </c>
       <c r="R14">
-        <v>1153.881302954765</v>
+        <v>0.07632296460099999</v>
       </c>
       <c r="S14">
-        <v>0.2905388488256939</v>
+        <v>7.084853433962026E-05</v>
       </c>
       <c r="T14">
-        <v>0.2329809005886285</v>
+        <v>9.546173234413874E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H15">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I15">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J15">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>4.394928</v>
       </c>
       <c r="O15">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P15">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q15">
-        <v>13.490082800936</v>
+        <v>0.0003872419893333333</v>
       </c>
       <c r="R15">
-        <v>80.94049680561599</v>
+        <v>0.003485177904</v>
       </c>
       <c r="S15">
-        <v>0.01358681561963358</v>
+        <v>2.156797303861496E-06</v>
       </c>
       <c r="T15">
-        <v>0.01634274668596713</v>
+        <v>4.359122080525098E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,55 +1402,55 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H16">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I16">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J16">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N16">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O16">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P16">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q16">
-        <v>10.6410687638255</v>
+        <v>1.329482122222222E-05</v>
       </c>
       <c r="R16">
-        <v>63.846412582953</v>
+        <v>0.000119653391</v>
       </c>
       <c r="S16">
-        <v>0.01071737226697436</v>
+        <v>7.40473279170329E-08</v>
       </c>
       <c r="T16">
-        <v>0.01289126937479519</v>
+        <v>1.496577084685325E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,25 +1464,25 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H17">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I17">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J17">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N17">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O17">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P17">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q17">
-        <v>207.4198668423875</v>
+        <v>0.0012463458085</v>
       </c>
       <c r="R17">
-        <v>829.67946736955</v>
+        <v>0.007478074850999999</v>
       </c>
       <c r="S17">
-        <v>0.2089072045162637</v>
+        <v>6.94169370444479E-06</v>
       </c>
       <c r="T17">
-        <v>0.1675211037848225</v>
+        <v>9.353278971899944E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,25 +1526,25 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H18">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I18">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J18">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N18">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O18">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P18">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q18">
-        <v>254.8345952098426</v>
+        <v>6.014693533333333E-05</v>
       </c>
       <c r="R18">
-        <v>1529.007571259056</v>
+        <v>0.000541322418</v>
       </c>
       <c r="S18">
-        <v>0.2566619278556138</v>
+        <v>3.34996595244736E-07</v>
       </c>
       <c r="T18">
-        <v>0.308722881674712</v>
+        <v>6.770645774721508E-07</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>9.208398499999999</v>
+        <v>0.0002643333333333333</v>
       </c>
       <c r="H19">
-        <v>18.416797</v>
+        <v>0.000793</v>
       </c>
       <c r="I19">
-        <v>0.7855556127281174</v>
+        <v>8.061008722916141E-05</v>
       </c>
       <c r="J19">
-        <v>0.744645634815076</v>
+        <v>0.0001105142536211535</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N19">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O19">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P19">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q19">
-        <v>5.106824334791666</v>
+        <v>4.560763277777778E-05</v>
       </c>
       <c r="R19">
-        <v>30.64094600875</v>
+        <v>0.000410468695</v>
       </c>
       <c r="S19">
-        <v>0.005143443643938051</v>
+        <v>2.540179580730943E-07</v>
       </c>
       <c r="T19">
-        <v>0.006186732706150774</v>
+        <v>5.133979386490515E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H20">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I20">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J20">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.3268725</v>
+        <v>48.1229285</v>
       </c>
       <c r="N20">
-        <v>62.653745</v>
+        <v>96.245857</v>
       </c>
       <c r="O20">
-        <v>0.3698514072309863</v>
+        <v>0.8789040773297934</v>
       </c>
       <c r="P20">
-        <v>0.3128748624793679</v>
+        <v>0.8637956572677465</v>
       </c>
       <c r="Q20">
-        <v>21.0216158492725</v>
+        <v>70.02124305246075</v>
       </c>
       <c r="R20">
-        <v>126.129695095635</v>
+        <v>280.084972209843</v>
       </c>
       <c r="S20">
-        <v>0.02117235474277558</v>
+        <v>0.3899929046655636</v>
       </c>
       <c r="T20">
-        <v>0.02546692617264998</v>
+        <v>0.3503191574185949</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H21">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I21">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J21">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>4.394928</v>
       </c>
       <c r="O21">
-        <v>0.01729580363183785</v>
+        <v>0.02675592321008251</v>
       </c>
       <c r="P21">
-        <v>0.02194701200393884</v>
+        <v>0.03944398064224648</v>
       </c>
       <c r="Q21">
-        <v>0.9830589600160002</v>
+        <v>2.131612596312</v>
       </c>
       <c r="R21">
-        <v>8.847530640144001</v>
+        <v>12.789675577872</v>
       </c>
       <c r="S21">
-        <v>0.0009901081431493808</v>
+        <v>0.01187230834269237</v>
       </c>
       <c r="T21">
-        <v>0.00178641048368477</v>
+        <v>0.0159968181682396</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,55 +1774,55 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H22">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I22">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J22">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.155583</v>
+        <v>0.05029566666666668</v>
       </c>
       <c r="N22">
-        <v>3.466749</v>
+        <v>0.150887</v>
       </c>
       <c r="O22">
-        <v>0.01364304715455412</v>
+        <v>0.0009185863762500139</v>
       </c>
       <c r="P22">
-        <v>0.01731195184941436</v>
+        <v>0.001354193722210386</v>
       </c>
       <c r="Q22">
-        <v>0.7754435719030002</v>
+        <v>0.07318268463550001</v>
       </c>
       <c r="R22">
-        <v>6.978992147127001</v>
+        <v>0.439096107813</v>
       </c>
       <c r="S22">
-        <v>0.0007810040153456376</v>
+        <v>0.0004076009866154405</v>
       </c>
       <c r="T22">
-        <v>0.001409132699762929</v>
+        <v>0.0005492039694282065</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,25 +1836,25 @@
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H23">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I23">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J23">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.525075</v>
+        <v>4.7150535</v>
       </c>
       <c r="N23">
-        <v>45.05015</v>
+        <v>9.430107</v>
       </c>
       <c r="O23">
-        <v>0.2659356016702117</v>
+        <v>0.08611445469238459</v>
       </c>
       <c r="P23">
-        <v>0.2249675496001858</v>
+        <v>0.0846341414381107</v>
       </c>
       <c r="Q23">
-        <v>15.115248853075</v>
+        <v>6.860636237648249</v>
       </c>
       <c r="R23">
-        <v>90.69149311845001</v>
+        <v>27.442544950593</v>
       </c>
       <c r="S23">
-        <v>0.0152236351875734</v>
+        <v>0.03821125329308526</v>
       </c>
       <c r="T23">
-        <v>0.01831157649262319</v>
+        <v>0.03432404512338846</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,25 +1898,25 @@
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H24">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I24">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J24">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>27.67414933333333</v>
+        <v>0.227542</v>
       </c>
       <c r="N24">
-        <v>83.022448</v>
+        <v>0.682626</v>
       </c>
       <c r="O24">
-        <v>0.3267266170554943</v>
+        <v>0.004155765199613233</v>
       </c>
       <c r="P24">
-        <v>0.4145903329593541</v>
+        <v>0.006126490975482225</v>
       </c>
       <c r="Q24">
-        <v>18.57048884278933</v>
+        <v>0.3310848733289999</v>
       </c>
       <c r="R24">
-        <v>167.134399585104</v>
+        <v>1.986509239974</v>
       </c>
       <c r="S24">
-        <v>0.01870365153399464</v>
+        <v>0.001844022553893653</v>
       </c>
       <c r="T24">
-        <v>0.0337462118806892</v>
+        <v>0.002484646847209494</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6710410000000001</v>
+        <v>1.4550495</v>
       </c>
       <c r="H25">
-        <v>2.013123</v>
+        <v>2.910099</v>
       </c>
       <c r="I25">
-        <v>0.0572455703259029</v>
+        <v>0.4437263573180871</v>
       </c>
       <c r="J25">
-        <v>0.08139652374383181</v>
+        <v>0.4055579053577115</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.5545833333333333</v>
+        <v>0.1725383333333333</v>
       </c>
       <c r="N25">
-        <v>1.66375</v>
+        <v>0.517615</v>
       </c>
       <c r="O25">
-        <v>0.006547523256915751</v>
+        <v>0.003151193191876377</v>
       </c>
       <c r="P25">
-        <v>0.008308291107739021</v>
+        <v>0.004645535954203667</v>
       </c>
       <c r="Q25">
-        <v>0.3721481545833334</v>
+        <v>0.2510518156475</v>
       </c>
       <c r="R25">
-        <v>3.34933339125</v>
+        <v>1.506310893885</v>
       </c>
       <c r="S25">
-        <v>0.0003748167030642554</v>
+        <v>0.001398267476236861</v>
       </c>
       <c r="T25">
-        <v>0.0006762660144217459</v>
+        <v>0.001884033830850776</v>
       </c>
     </row>
   </sheetData>
